--- a/Niranjan Files/public/teacher_question_ticket.xlsx
+++ b/Niranjan Files/public/teacher_question_ticket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saaij\OneDrive\Desktop\Calhack_Repo\calhacks_narration_learning\Niranjan Files\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE3161-8B6F-44DC-957E-F1865E988BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF0048-E552-4B80-ADE4-0CF8B4801DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1904C627-8B23-4387-98D2-2FE55B22D3B4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>STUDENT_NAME</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>QUESTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B9F633-3FAE-41B1-9B6E-3712DBBC17A1}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +451,7 @@
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,6 +466,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
